--- a/Data/clean_data.xlsx
+++ b/Data/clean_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierscokaert/Desktop/UZH Master/UZH FS 25/PMPtheory2/Meeting_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PMP_BacktesterV2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD4165B-6241-244B-9842-7B33CE3612E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202D898D-5105-46E3-8E45-42B241E84DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="9120" windowWidth="27640" windowHeight="16940" xr2:uid="{5C161AE7-FC09-0340-99E0-36C13354CF4F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5C161AE7-FC09-0340-99E0-36C13354CF4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="302">
   <si>
     <t>IBIT US Equity</t>
   </si>
@@ -940,6 +962,9 @@
   </si>
   <si>
     <t>Aggregated MBT Futures Return</t>
+  </si>
+  <si>
+    <t>BTC - IBIT</t>
   </si>
 </sst>
 </file>
@@ -1317,13 +1342,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BEE6CA-CB67-2543-B3AD-8E685E66826A}">
-  <dimension ref="A1:U290"/>
+  <dimension ref="A1:V291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="47" workbookViewId="0">
+      <selection sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -1361,7 +1386,7 @@
     <col min="40" max="40" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1422,8 +1447,11 @@
       <c r="U1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1478,7 +1506,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1517,7 +1545,7 @@
         <v>2.9406225205603948E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1556,7 +1584,7 @@
         <v>-5.0435253523478218E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1595,7 +1623,7 @@
         <v>3.4486561050505245E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1634,7 +1662,7 @@
         <v>-8.9482709416675073E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1673,7 +1701,7 @@
         <v>7.2423431405683289E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1712,7 +1740,7 @@
         <v>-3.9301754514474109E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1751,7 +1779,7 @@
         <v>-1.9775444330216156E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1790,7 +1818,7 @@
         <v>1.7757530315580292E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1833,8 +1861,12 @@
       <c r="T11" s="2">
         <v>-6.2075060069355349E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="2">
+        <f>T11-S11</f>
+        <v>2.6065153409941116E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1877,8 +1909,12 @@
       <c r="T12" s="2">
         <v>-1.8571607428277365E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="2">
+        <f t="shared" ref="V12:V75" si="0">T12-S12</f>
+        <v>-1.8571607428277365E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1924,8 +1960,12 @@
       <c r="U13">
         <v>-7.0566810835419984E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.590812114316436E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1971,8 +2011,12 @@
       <c r="U14">
         <v>-1.0087116001834021E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="2">
+        <f t="shared" si="0"/>
+        <v>-5.0948447976296996E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2018,8 +2062,12 @@
       <c r="U15">
         <v>-4.5275590551181105E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2212334020005964E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2065,8 +2113,12 @@
       <c r="U16">
         <v>1.7222559126743482E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8663891692609642E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2112,8 +2164,12 @@
       <c r="U17">
         <v>-3.4577322046023609E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.820121801010208E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2159,8 +2215,12 @@
       <c r="U18">
         <v>-2.284796838335186E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5649297425724858E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2206,8 +2266,12 @@
       <c r="U19">
         <v>1.0237613751263903E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0513068648355384E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2253,8 +2317,12 @@
       <c r="U20">
         <v>1.5013136494432628E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="2">
+        <f t="shared" si="0"/>
+        <v>-5.5298088461469448E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2300,8 +2368,12 @@
       <c r="U21">
         <v>5.9088069956277328E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0361800054613566E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2350,8 +2422,12 @@
       <c r="U22">
         <v>2.689313517338995E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.6484045108063348E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2400,8 +2476,12 @@
       <c r="U23">
         <v>8.2701585113714674E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6155685716017273E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -2450,8 +2530,12 @@
       <c r="U24">
         <v>-2.4493050808840282E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="2">
+        <f t="shared" si="0"/>
+        <v>5.7323315512911449E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -2500,8 +2584,12 @@
       <c r="U25">
         <v>1.0743898166530421E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="2">
+        <f t="shared" si="0"/>
+        <v>-5.025877664024363E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2550,8 +2638,12 @@
       <c r="U26">
         <v>-2.0797227036395147E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8783747279196486E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2600,8 +2692,12 @@
       <c r="U27">
         <v>-1.4588398749565822E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.4326318129298747E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2650,8 +2746,12 @@
       <c r="U28">
         <v>1.7624250969333802E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.6350111701798897E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2700,8 +2800,12 @@
       <c r="U29">
         <v>2.5516683985682947E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.8322083537009931E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -2750,8 +2854,12 @@
       <c r="U30">
         <v>3.0173384372888988E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6516450258624054E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2800,8 +2908,12 @@
       <c r="U31">
         <v>4.4153005464480873E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5263657699261411E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2850,8 +2962,12 @@
       <c r="U32">
         <v>5.6416160770357965E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.186455674064735E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2900,8 +3016,12 @@
       <c r="U33">
         <v>-1.6347963935400774E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="2">
+        <f t="shared" si="0"/>
+        <v>1.534689142721592E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -2950,8 +3070,12 @@
       <c r="U34">
         <v>4.7340854149879132E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8213629008931049E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -3000,8 +3124,12 @@
       <c r="U35">
         <v>-6.732063858434314E-4</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0078059080521253E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -3050,8 +3178,12 @@
       <c r="U36">
         <v>1.9022256039566293E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V36" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.6877887738133008E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -3100,8 +3232,12 @@
       <c r="U37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V37" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5319963958586079E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -3150,8 +3286,12 @@
       <c r="U38">
         <v>2.3732675147142587E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9933277709493066E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -3200,8 +3340,12 @@
       <c r="U39">
         <v>-2.2066483568519746E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="2">
+        <f t="shared" si="0"/>
+        <v>-5.706464325327433E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -3250,8 +3394,12 @@
       <c r="U40">
         <v>2.1014913809800504E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.4635210389325853E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -3300,8 +3448,12 @@
       <c r="U41">
         <v>-1.83059850137532E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9476221016281335E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -3353,8 +3505,12 @@
       <c r="U42">
         <v>6.840579710144927E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0844190295166771E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -3403,8 +3559,12 @@
       <c r="U43">
         <v>4.214143606438777E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.3653438587969328E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -3453,8 +3613,12 @@
       <c r="U44">
         <v>5.6404026379729258E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0241830731876805E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -3503,8 +3667,12 @@
       <c r="U45">
         <v>3.1049778215869888E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0342740091674046E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -3553,8 +3721,12 @@
       <c r="U46">
         <v>1.6969407265774377E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.7483627386126554E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -3603,8 +3775,12 @@
       <c r="U47">
         <v>7.2933803368585973E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1256526129027646E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -3653,8 +3829,12 @@
       <c r="U48">
         <v>-8.8419976635514014E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0815811195495767E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -3703,8 +3883,12 @@
       <c r="U49">
         <v>8.546255506607929E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="2">
+        <f t="shared" si="0"/>
+        <v>-8.3146439120523191E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -3753,8 +3937,12 @@
       <c r="U50">
         <v>8.9285714285714281E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="2">
+        <f t="shared" si="0"/>
+        <v>9.6178088821449043E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -3803,8 +3991,12 @@
       <c r="U51">
         <v>2.1063409639435385E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.4615213139715722E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -3853,8 +4045,12 @@
       <c r="U52">
         <v>4.0899649022276344E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8293928763846273E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -3903,8 +4099,12 @@
       <c r="U53">
         <v>-1.1835948252133223E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.3035898396757708E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -3953,8 +4153,12 @@
       <c r="U54">
         <v>2.945682451253482E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.4289978229339255E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -4003,8 +4207,12 @@
       <c r="U55">
         <v>-5.8377866468240544E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="2">
+        <f t="shared" si="0"/>
+        <v>8.9986646336144838E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -4053,8 +4261,12 @@
       <c r="U56">
         <v>-6.2500000000000003E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9882266478800562E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -4103,8 +4315,12 @@
       <c r="U57">
         <v>-2.9460135859849839E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="2">
+        <f t="shared" si="0"/>
+        <v>-5.0584027936021111E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -4153,8 +4369,12 @@
       <c r="U58">
         <v>-3.8385029101893467E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="2">
+        <f t="shared" si="0"/>
+        <v>1.569333071086032E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -4203,8 +4423,12 @@
       <c r="U59">
         <v>2.1912350597609563E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.0719109259981209E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -4253,8 +4477,12 @@
       <c r="U60">
         <v>-8.3970610286399766E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3106317513666552E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -4303,8 +4531,12 @@
       <c r="U61">
         <v>-2.1397247845153487E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.7841922380020707E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -4353,8 +4585,12 @@
       <c r="U62">
         <v>0.11141157382368848</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.8919221977428836E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -4403,8 +4639,12 @@
       <c r="U63">
         <v>-2.3844282238442822E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5213558377329086E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -4453,8 +4693,12 @@
       <c r="U64">
         <v>-1.2818686796752599E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.6042074776320588E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -4503,8 +4747,12 @@
       <c r="U65">
         <v>3.2030010099552732E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.4705966216206606E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>83</v>
       </c>
@@ -4553,8 +4801,12 @@
       <c r="U66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.7500164637270835E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>84</v>
       </c>
@@ -4600,8 +4852,12 @@
       <c r="U67">
         <v>-1.607717041800643E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5017209110427737E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -4647,8 +4903,12 @@
       <c r="U68">
         <v>-5.4418868996874113E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="2">
+        <f t="shared" si="0"/>
+        <v>6.7566039829548702E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -4694,8 +4954,12 @@
       <c r="U69">
         <v>-3.6814425244177311E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.3131799828685898E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -4741,8 +5005,12 @@
       <c r="U70">
         <v>3.8232410828745948E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="2">
+        <f t="shared" si="0"/>
+        <v>1.764710176313522E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -4788,8 +5056,12 @@
       <c r="U71">
         <v>-1.5761185357350379E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4872766700950568E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>89</v>
       </c>
@@ -4835,8 +5107,12 @@
       <c r="U72">
         <v>6.4275699210390377E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.5294516310906991E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -4882,8 +5158,12 @@
       <c r="U73">
         <v>-3.8205519345444458E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.3626455031327603E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -4929,8 +5209,12 @@
       <c r="U74">
         <v>1.521159253118016E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.2808209334507927E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>92</v>
       </c>
@@ -4976,8 +5260,12 @@
       <c r="U75">
         <v>5.5389859394972306E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1227405740788112E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>93</v>
       </c>
@@ -5023,8 +5311,12 @@
       <c r="U76">
         <v>-5.1271186440677963E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="2">
+        <f t="shared" ref="V76:V139" si="1">T76-S76</f>
+        <v>1.6274758316768279E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>94</v>
       </c>
@@ -5070,8 +5362,12 @@
       <c r="U77">
         <v>-5.3744231055530743E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="2">
+        <f t="shared" si="1"/>
+        <v>-6.285905578796297E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -5117,8 +5413,12 @@
       <c r="U78">
         <v>-1.018029219769972E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V78" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2814695831560022E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -5164,8 +5464,12 @@
       <c r="U79">
         <v>-2.8892203815655177E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V79" s="2">
+        <f t="shared" si="1"/>
+        <v>-6.8851336054144563E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>97</v>
       </c>
@@ -5211,8 +5515,12 @@
       <c r="U80">
         <v>4.074702886247878E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2">
+        <f t="shared" si="1"/>
+        <v>-4.6018297482071299E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -5258,8 +5566,12 @@
       <c r="U81">
         <v>1.0720111862036821E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5062935613220831E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>99</v>
       </c>
@@ -5305,8 +5617,12 @@
       <c r="U82">
         <v>3.5354699869341324E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5288815679688483E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -5352,8 +5668,12 @@
       <c r="U83">
         <v>-2.9693415485116175E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="2">
+        <f t="shared" si="1"/>
+        <v>4.1746952516590954E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>101</v>
       </c>
@@ -5399,8 +5719,12 @@
       <c r="U84">
         <v>-3.968431241158514E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5516013535264387E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>102</v>
       </c>
@@ -5446,8 +5770,12 @@
       <c r="U85">
         <v>1.2094898433865716E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="2">
+        <f t="shared" si="1"/>
+        <v>-5.6897211238702873E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -5493,8 +5821,12 @@
       <c r="U86">
         <v>-1.4861345181553546E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1811231090579772E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -5543,8 +5875,12 @@
       <c r="U87">
         <v>-1.3219284603421462E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="2">
+        <f t="shared" si="1"/>
+        <v>-6.2983539557877263E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -5590,8 +5926,12 @@
       <c r="U88">
         <v>-6.3829787234042548E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0201031610729295E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -5637,8 +5977,12 @@
       <c r="U89">
         <v>-3.4427609427609425E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0715975118476898E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -5684,8 +6028,12 @@
       <c r="U90">
         <v>4.2019004445994247E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.1464273869900182E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -5731,8 +6079,12 @@
       <c r="U91">
         <v>4.7268468166987369E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.4514512417250717E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>109</v>
       </c>
@@ -5778,8 +6130,12 @@
       <c r="U92">
         <v>1.589710816424349E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5510827785063988E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -5825,8 +6181,12 @@
       <c r="U93">
         <v>-3.4599355193835023E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2058260204298247E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>111</v>
       </c>
@@ -5872,8 +6232,12 @@
       <c r="U94">
         <v>-1.428233251795155E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7205265180121158E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -5919,8 +6283,12 @@
       <c r="U95">
         <v>6.0838936919628559E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="2">
+        <f t="shared" si="1"/>
+        <v>-4.8650452212060233E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -5966,8 +6334,12 @@
       <c r="U96">
         <v>-3.0076384468491407E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5898079898286309E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>114</v>
       </c>
@@ -6013,8 +6385,12 @@
       <c r="U97">
         <v>4.1509433962264149E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.6669721716526124E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -6060,8 +6436,12 @@
       <c r="U98">
         <v>-2.5913673597983616E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1679959148410421E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>116</v>
       </c>
@@ -6107,8 +6487,12 @@
       <c r="U99">
         <v>7.536185008490337E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.1198537589744576E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>117</v>
       </c>
@@ -6154,8 +6538,12 @@
       <c r="U100">
         <v>-1.5440847381769356E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="2">
+        <f t="shared" si="1"/>
+        <v>4.1841826887827008E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -6201,8 +6589,12 @@
       <c r="U101">
         <v>2.9093113114629896E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="2">
+        <f t="shared" si="1"/>
+        <v>-6.202466746278161E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -6248,8 +6640,12 @@
       <c r="U102">
         <v>4.5350806154752267E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V102" s="2">
+        <f t="shared" si="1"/>
+        <v>-7.0774966103123241E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>120</v>
       </c>
@@ -6295,8 +6691,12 @@
       <c r="U103">
         <v>-1.3169941545179238E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V103" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5605673292056621E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>121</v>
       </c>
@@ -6342,8 +6742,12 @@
       <c r="U104">
         <v>4.7102483585498142E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V104" s="2">
+        <f t="shared" si="1"/>
+        <v>-5.6064040394507558E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>122</v>
       </c>
@@ -6389,8 +6793,12 @@
       <c r="U105">
         <v>-3.7079130558317942E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V105" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6355484966470938E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>123</v>
       </c>
@@ -6436,8 +6844,12 @@
       <c r="U106">
         <v>3.3712009442313368E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V106" s="2">
+        <f t="shared" si="1"/>
+        <v>-7.4209505496978349E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>124</v>
       </c>
@@ -6483,8 +6895,12 @@
       <c r="U107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V107" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1651046007501832E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>125</v>
       </c>
@@ -6530,8 +6946,12 @@
       <c r="U108">
         <v>-1.4129736673089274E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V108" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.8760223971220053E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>126</v>
       </c>
@@ -6577,8 +6997,12 @@
       <c r="U109">
         <v>-1.8747737965979009E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V109" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3791047941300317E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -6624,8 +7048,12 @@
       <c r="U110">
         <v>2.3089406904691648E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V110" s="2">
+        <f t="shared" si="1"/>
+        <v>9.2241996555343306E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -6671,8 +7099,12 @@
       <c r="U111">
         <v>-1.8891051986444588E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V111" s="2">
+        <f t="shared" si="1"/>
+        <v>-5.6138166116107731E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -6721,8 +7153,12 @@
       <c r="U112">
         <v>2.3884765194385243E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V112" s="2">
+        <f t="shared" si="1"/>
+        <v>9.4486009382778458E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -6768,8 +7204,12 @@
       <c r="U113">
         <v>2.0456503014642548E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V113" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1558847525445608E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>131</v>
       </c>
@@ -6815,8 +7255,12 @@
       <c r="U114">
         <v>1.1324470704086657E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V114" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.6186913459957202E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>132</v>
       </c>
@@ -6862,8 +7306,12 @@
       <c r="U115">
         <v>-1.2936430657949645E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V115" s="2">
+        <f t="shared" si="1"/>
+        <v>8.5846155397354702E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>133</v>
       </c>
@@ -6909,8 +7357,12 @@
       <c r="U116">
         <v>-1.6981397970687713E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V116" s="2">
+        <f t="shared" si="1"/>
+        <v>-6.0073871825694555E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>134</v>
       </c>
@@ -6956,8 +7408,12 @@
       <c r="U117">
         <v>1.7203067880438678E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V117" s="2">
+        <f t="shared" si="1"/>
+        <v>3.7264214500928802E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>135</v>
       </c>
@@ -7003,8 +7459,12 @@
       <c r="U118">
         <v>-3.0626118067978533E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V118" s="2">
+        <f t="shared" si="1"/>
+        <v>-4.6918095207975179E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>136</v>
       </c>
@@ -7050,8 +7510,12 @@
       <c r="U119">
         <v>2.0668782756329816E-3</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V119" s="2">
+        <f t="shared" si="1"/>
+        <v>1.644153311904907E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>137</v>
       </c>
@@ -7097,8 +7561,12 @@
       <c r="U120">
         <v>-1.4953959484346224E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V120" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.0690749582134522E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>138</v>
       </c>
@@ -7144,8 +7612,12 @@
       <c r="U121">
         <v>-1.824708345797188E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V121" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.2516801224112199E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>139</v>
       </c>
@@ -7191,8 +7663,12 @@
       <c r="U122">
         <v>1.9187188397038826E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V122" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2351598156217858E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>140</v>
       </c>
@@ -7238,8 +7714,12 @@
       <c r="U123">
         <v>-3.5650756003557667E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V123" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5740021632072027E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>141</v>
       </c>
@@ -7285,8 +7765,12 @@
       <c r="U124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V124" s="2">
+        <f t="shared" si="1"/>
+        <v>7.1409094748768097E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>142</v>
       </c>
@@ -7332,8 +7816,12 @@
       <c r="U125">
         <v>9.5303973560833134E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V125" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.492252629372127E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>143</v>
       </c>
@@ -7379,8 +7867,12 @@
       <c r="U126">
         <v>-1.3170917396269509E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V126" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5777147734382102E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>144</v>
       </c>
@@ -7426,8 +7918,12 @@
       <c r="U127">
         <v>-8.0543126060793085E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V127" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3143430790271707E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>145</v>
       </c>
@@ -7473,8 +7969,12 @@
       <c r="U128">
         <v>4.9672763886558148E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V128" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.2010189921103885E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>146</v>
       </c>
@@ -7520,8 +8020,12 @@
       <c r="U129">
         <v>-1.7905675459632293E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V129" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.8692744207509104E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>147</v>
       </c>
@@ -7567,8 +8071,12 @@
       <c r="U130">
         <v>6.7556568451896471E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V130" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4070773867195094E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>148</v>
       </c>
@@ -7614,8 +8122,12 @@
       <c r="U131">
         <v>-2.4577572964669739E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V131" s="2">
+        <f t="shared" si="1"/>
+        <v>5.1474821728294644E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>149</v>
       </c>
@@ -7661,8 +8173,12 @@
       <c r="U132">
         <v>5.5864069622876086E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V132" s="2">
+        <f t="shared" si="1"/>
+        <v>-5.1795141072548262E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>150</v>
       </c>
@@ -7705,8 +8221,12 @@
       <c r="U133">
         <v>-2.3706727372635215E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V133" s="2">
+        <f t="shared" si="1"/>
+        <v>9.1002934964522567E-4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>151</v>
       </c>
@@ -7749,8 +8269,12 @@
       <c r="U134">
         <v>-3.7951274423092388E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V134" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.1476342773435729E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>152</v>
       </c>
@@ -7793,8 +8317,12 @@
       <c r="U135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V135" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.600495307002873E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -7837,8 +8365,12 @@
       <c r="U136">
         <v>-5.248641872127037E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V136" s="2">
+        <f t="shared" si="1"/>
+        <v>3.3937837339757713E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>154</v>
       </c>
@@ -7881,8 +8413,12 @@
       <c r="U137">
         <v>1.2348945929258181E-3</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V137" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.6112232087935083E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>155</v>
       </c>
@@ -7925,8 +8461,12 @@
       <c r="U138">
         <v>2.4755528147299796E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V138" s="2">
+        <f t="shared" si="1"/>
+        <v>1.131835700816524E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>156</v>
       </c>
@@ -7969,8 +8509,12 @@
       <c r="U139">
         <v>-9.1987620357634105E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V139" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2873322750691224E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>157</v>
       </c>
@@ -8013,8 +8557,12 @@
       <c r="U140">
         <v>-7.8091106290672455E-4</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V140" s="2">
+        <f t="shared" ref="V140:V203" si="2">T140-S140</f>
+        <v>9.6192675137706787E-4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>158</v>
       </c>
@@ -8057,8 +8605,12 @@
       <c r="U141">
         <v>4.6022924626606459E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V141" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7159532949915877E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>159</v>
       </c>
@@ -8101,8 +8653,12 @@
       <c r="U142">
         <v>0.10121877431065779</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V142" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.067694821554709E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>160</v>
       </c>
@@ -8145,8 +8701,12 @@
       <c r="U143">
         <v>2.7581384507808251E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V143" s="2">
+        <f t="shared" si="2"/>
+        <v>-6.7429817598026569E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>161</v>
       </c>
@@ -8189,8 +8749,12 @@
       <c r="U144">
         <v>-1.1038862845909572E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V144" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1824098430200112E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>162</v>
       </c>
@@ -8233,8 +8797,12 @@
       <c r="U145">
         <v>-1.6896024464831804E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V145" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.1584651358327349E-4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>163</v>
       </c>
@@ -8277,8 +8845,12 @@
       <c r="U146">
         <v>6.1435570417606347E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V146" s="2">
+        <f t="shared" si="2"/>
+        <v>-2.8954549701207463E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>164</v>
       </c>
@@ -8321,8 +8893,12 @@
       <c r="U147">
         <v>1.2381859476884754E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V147" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.5444351809551453E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>165</v>
       </c>
@@ -8365,8 +8941,12 @@
       <c r="U148">
         <v>-4.0454479664206108E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V148" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1212951933577166E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>166</v>
       </c>
@@ -8409,8 +8989,12 @@
       <c r="U149">
         <v>2.2626140734595371E-3</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V149" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.4204800974055691E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>167</v>
       </c>
@@ -8453,8 +9037,12 @@
       <c r="U150">
         <v>-1.5877793663932577E-2</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V150" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.5376185996737596E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>168</v>
       </c>
@@ -8497,8 +9085,12 @@
       <c r="U151">
         <v>5.176632512616608E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V151" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.6854320621067059E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>169</v>
       </c>
@@ -8544,8 +9136,12 @@
       <c r="U152">
         <v>-1.3304252998909487E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V152" s="2">
+        <f t="shared" si="2"/>
+        <v>5.470832078051391E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>170</v>
       </c>
@@ -8588,8 +9184,12 @@
       <c r="U153">
         <v>-2.17359269083407E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V153" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.5601352598918952E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>171</v>
       </c>
@@ -8632,8 +9232,12 @@
       <c r="U154">
         <v>-1.0544550726820819E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V154" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1093270426495024E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>172</v>
       </c>
@@ -8676,8 +9280,12 @@
       <c r="U155">
         <v>-2.8849813503844104E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V155" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.0239205813529589E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>173</v>
       </c>
@@ -8720,8 +9328,12 @@
       <c r="U156">
         <v>-1.3246590374666876E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V156" s="2">
+        <f t="shared" si="2"/>
+        <v>4.4516789061201986E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>174</v>
       </c>
@@ -8764,8 +9376,12 @@
       <c r="U157">
         <v>-0.14576217332591945</v>
       </c>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V157" s="2">
+        <f t="shared" si="2"/>
+        <v>-8.44388799279161E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>175</v>
       </c>
@@ -8808,8 +9424,12 @@
       <c r="U158">
         <v>6.2767342384229124E-2</v>
       </c>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V158" s="2">
+        <f t="shared" si="2"/>
+        <v>5.8087576456447299E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>176</v>
       </c>
@@ -8852,8 +9472,12 @@
       <c r="U159">
         <v>-3.7536092396535131E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V159" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6434570382636806E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>177</v>
       </c>
@@ -8896,8 +9520,12 @@
       <c r="U160">
         <v>8.5363636363636364E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V160" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3449740877830592E-4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>178</v>
       </c>
@@ -8940,8 +9568,12 @@
       <c r="U161">
         <v>2.1693609179998324E-2</v>
       </c>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V161" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.0476719636073226E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>179</v>
       </c>
@@ -8984,8 +9616,12 @@
       <c r="U162">
         <v>-2.9349073618626004E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V162" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5513902352246121E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>180</v>
       </c>
@@ -9028,8 +9664,12 @@
       <c r="U163">
         <v>3.2179054054054052E-2</v>
       </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V163" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.8655814976896515E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>181</v>
       </c>
@@ -9072,8 +9712,12 @@
       <c r="U164">
         <v>-3.3139677604124049E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V164" s="2">
+        <f t="shared" si="2"/>
+        <v>2.076063761207992E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>182</v>
       </c>
@@ -9116,8 +9760,12 @@
       <c r="U165">
         <v>-3.1482735274204469E-2</v>
       </c>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V165" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1654122623981954E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>183</v>
       </c>
@@ -9160,8 +9808,12 @@
       <c r="U166">
         <v>4.8626159313513044E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V166" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.5136129890081663E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>184</v>
       </c>
@@ -9204,8 +9856,12 @@
       <c r="U167">
         <v>-1.3225326500247974E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V167" s="2">
+        <f t="shared" si="2"/>
+        <v>3.7707706977493233E-4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>185</v>
       </c>
@@ -9248,8 +9904,12 @@
       <c r="U168">
         <v>7.957781873010555E-3</v>
       </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V168" s="2">
+        <f t="shared" si="2"/>
+        <v>-2.3196158848770342E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>186</v>
       </c>
@@ -9292,8 +9952,12 @@
       <c r="U169">
         <v>3.4488489985872187E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V169" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.9986032875673882E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>187</v>
       </c>
@@ -9336,8 +10000,12 @@
       <c r="U170">
         <v>-2.2573907455012854E-2</v>
       </c>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V170" s="2">
+        <f t="shared" si="2"/>
+        <v>8.1629186598851204E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>188</v>
       </c>
@@ -9380,8 +10048,12 @@
       <c r="U171">
         <v>5.7450480808744965E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V171" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.8496927089685505E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>189</v>
       </c>
@@ -9424,8 +10096,12 @@
       <c r="U172">
         <v>-7.3060780351313541E-3</v>
       </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V172" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1403906452789178E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>190</v>
       </c>
@@ -9468,8 +10144,12 @@
       <c r="U173">
         <v>-2.0670216097713748E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V173" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.0897311311567192E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>191</v>
       </c>
@@ -9512,8 +10192,12 @@
       <c r="U174">
         <v>-5.1167252958106813E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V174" s="2">
+        <f t="shared" si="2"/>
+        <v>8.6367727672649816E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>192</v>
       </c>
@@ -9556,8 +10240,12 @@
       <c r="U175">
         <v>5.1398719245028647E-3</v>
       </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V175" s="2">
+        <f t="shared" si="2"/>
+        <v>-4.6092951810889618E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>193</v>
       </c>
@@ -9600,8 +10288,12 @@
       <c r="U176">
         <v>-1.1149300025148797E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V176" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3170168438569859E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>194</v>
       </c>
@@ -9647,8 +10339,12 @@
       <c r="U177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V177" s="2">
+        <f t="shared" si="2"/>
+        <v>-8.0099215381982253E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>195</v>
       </c>
@@ -9691,8 +10387,12 @@
       <c r="U178">
         <v>-1.2546625974906748E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V178" s="2">
+        <f t="shared" si="2"/>
+        <v>3.7863327645497012E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>196</v>
       </c>
@@ -9735,8 +10435,12 @@
       <c r="U179">
         <v>1.974587912087912E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V179" s="2">
+        <f t="shared" si="2"/>
+        <v>-4.1034046242090141E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>197</v>
       </c>
@@ -9779,8 +10483,12 @@
       <c r="U180">
         <v>-3.6672093222517348E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V180" s="2">
+        <f t="shared" si="2"/>
+        <v>7.0133397292291219E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>198</v>
       </c>
@@ -9823,8 +10531,12 @@
       <c r="U181">
         <v>-4.4827892911144709E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V181" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.3219555107549033E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>199</v>
       </c>
@@ -9867,8 +10579,12 @@
       <c r="U182">
         <v>6.9187075146661697E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V182" s="2">
+        <f t="shared" si="2"/>
+        <v>-8.0490839352881927E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>200</v>
       </c>
@@ -9911,8 +10627,12 @@
       <c r="U183">
         <v>1.3673576032050166E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V183" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.4599331991062975E-4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>201</v>
       </c>
@@ -9955,8 +10675,12 @@
       <c r="U184">
         <v>-5.7565082910902999E-3</v>
       </c>
-    </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V184" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5054760230168016E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>202</v>
       </c>
@@ -9999,8 +10723,12 @@
       <c r="U185">
         <v>1.2443829934324231E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V185" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.6305570771945923E-4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>203</v>
       </c>
@@ -10043,8 +10771,12 @@
       <c r="U186">
         <v>2.3130761351997268E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V186" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2853834088406864E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>204</v>
       </c>
@@ -10087,8 +10819,12 @@
       <c r="U187">
         <v>-3.2541194005133722E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V187" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.5343263942919592E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>205</v>
       </c>
@@ -10131,8 +10867,12 @@
       <c r="U188">
         <v>3.6460116398493669E-2</v>
       </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V188" s="2">
+        <f t="shared" si="2"/>
+        <v>7.5163406585864179E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>206</v>
       </c>
@@ -10175,8 +10915,12 @@
       <c r="U189">
         <v>4.9545829892650697E-4</v>
       </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V189" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.5942727034918436E-4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>207</v>
       </c>
@@ -10219,8 +10963,12 @@
       <c r="U190">
         <v>5.4473423572136019E-2</v>
       </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V190" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.9311514128794606E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>208</v>
       </c>
@@ -10263,8 +11011,12 @@
       <c r="U191">
         <v>-7.5140889167188479E-3</v>
       </c>
-    </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V191" s="2">
+        <f t="shared" si="2"/>
+        <v>-2.0068355015123241E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>209</v>
       </c>
@@ -10307,8 +11059,12 @@
       <c r="U192">
         <v>6.0725552050473188E-3</v>
       </c>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V192" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3690494167493277E-4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>210</v>
       </c>
@@ -10351,8 +11107,12 @@
       <c r="U193">
         <v>1.6853492200360587E-2</v>
       </c>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V193" s="2">
+        <f t="shared" si="2"/>
+        <v>-8.628415636834405E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>211</v>
       </c>
@@ -10395,8 +11155,12 @@
       <c r="U194">
         <v>-1.9734813444341658E-2</v>
       </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V194" s="2">
+        <f t="shared" si="2"/>
+        <v>8.7633314596299219E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>212</v>
       </c>
@@ -10439,8 +11203,12 @@
       <c r="U195">
         <v>2.5715633847121736E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V195" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7736260907190742E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>213</v>
       </c>
@@ -10483,8 +11251,12 @@
       <c r="U196">
         <v>1.4183853407958292E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V196" s="2">
+        <f t="shared" si="2"/>
+        <v>-4.5290783875097853E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>214</v>
       </c>
@@ -10527,8 +11299,12 @@
       <c r="U197">
         <v>-3.6211067432718479E-2</v>
       </c>
-    </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V197" s="2">
+        <f t="shared" si="2"/>
+        <v>-2.6865366194638238E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>215</v>
       </c>
@@ -10568,8 +11344,12 @@
       <c r="U198">
         <v>-2.7923758726174603E-2</v>
       </c>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V198" s="2">
+        <f t="shared" si="2"/>
+        <v>3.4815791128957399E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>216</v>
       </c>
@@ -10609,8 +11389,12 @@
       <c r="U199">
         <v>-2.4772048737190348E-2</v>
       </c>
-    </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V199" s="2">
+        <f t="shared" si="2"/>
+        <v>9.2029756347560693E-4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>217</v>
       </c>
@@ -10650,8 +11434,12 @@
       <c r="U200">
         <v>1.4314082409399305E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V200" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.0584464561608395E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>218</v>
       </c>
@@ -10691,8 +11479,12 @@
       <c r="U201">
         <v>2.3166653071212986E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V201" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7818049411200002E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>219</v>
       </c>
@@ -10732,8 +11524,12 @@
       <c r="U202">
         <v>1.3473650641792234E-2</v>
       </c>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V202" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.5795569225261747E-4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>220</v>
       </c>
@@ -10773,8 +11569,12 @@
       <c r="U203">
         <v>-1.8250471994965389E-2</v>
       </c>
-    </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V203" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4476677460711499E-5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>221</v>
       </c>
@@ -10814,8 +11614,12 @@
       <c r="U204">
         <v>-2.0592948717948718E-2</v>
       </c>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V204" s="2">
+        <f t="shared" ref="V204:V267" si="3">T204-S204</f>
+        <v>2.7642733445880328E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>222</v>
       </c>
@@ -10855,8 +11659,12 @@
       <c r="U205">
         <v>-2.1598625542010964E-2</v>
       </c>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V205" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.8127838390114889E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>223</v>
       </c>
@@ -10896,8 +11704,12 @@
       <c r="U206">
         <v>5.8700560247512336E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V206" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1233579628289886E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>224</v>
       </c>
@@ -10937,8 +11749,12 @@
       <c r="U207">
         <v>4.4862175183634785E-2</v>
       </c>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V207" s="2">
+        <f t="shared" si="3"/>
+        <v>3.7085281332414899E-4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>225</v>
       </c>
@@ -10978,8 +11794,12 @@
       <c r="U208">
         <v>1.6252173255726057E-2</v>
       </c>
-    </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V208" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.6418145532352954E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>226</v>
       </c>
@@ -11019,8 +11839,12 @@
       <c r="U209">
         <v>1.0398996976178184E-2</v>
       </c>
-    </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V209" s="2">
+        <f t="shared" si="3"/>
+        <v>4.0866136450115054E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>227</v>
       </c>
@@ -11060,8 +11884,12 @@
       <c r="U210">
         <v>-1.4817518248175182E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V210" s="2">
+        <f t="shared" si="3"/>
+        <v>4.2753329390336596E-4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>228</v>
       </c>
@@ -11101,8 +11929,12 @@
       <c r="U211">
         <v>2.8376676298436689E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V211" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1203236762869148E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>229</v>
       </c>
@@ -11142,8 +11974,12 @@
       <c r="U212">
         <v>-1.462536023054755E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V212" s="2">
+        <f t="shared" si="3"/>
+        <v>-4.5438842715801522E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>230</v>
       </c>
@@ -11183,8 +12019,12 @@
       <c r="U213">
         <v>-4.3138115083717187E-3</v>
       </c>
-    </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V213" s="2">
+        <f t="shared" si="3"/>
+        <v>2.6156961818327154E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>231</v>
       </c>
@@ -11224,8 +12064,12 @@
       <c r="U214">
         <v>-1.7109707739756206E-2</v>
       </c>
-    </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V214" s="2">
+        <f t="shared" si="3"/>
+        <v>-4.2644530037997761E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>232</v>
       </c>
@@ -11265,8 +12109,12 @@
       <c r="U215">
         <v>2.861412028389989E-2</v>
       </c>
-    </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V215" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8726196019122621E-4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>233</v>
       </c>
@@ -11306,8 +12154,12 @@
       <c r="U216">
         <v>-2.258861127251598E-2</v>
       </c>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V216" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0371997823115203E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>234</v>
       </c>
@@ -11347,8 +12199,12 @@
       <c r="U217">
         <v>4.4809392881028462E-2</v>
       </c>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V217" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.0829621455230804E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>235</v>
       </c>
@@ -11385,8 +12241,12 @@
       <c r="U218">
         <v>4.3243243243243246E-2</v>
       </c>
-    </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V218" s="2">
+        <f t="shared" si="3"/>
+        <v>6.9689822534015691E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>236</v>
       </c>
@@ -11423,8 +12283,12 @@
       <c r="U219">
         <v>-1.0976274884101446E-2</v>
       </c>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V219" s="2">
+        <f t="shared" si="3"/>
+        <v>-4.1923295855451816E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>237</v>
       </c>
@@ -11461,8 +12325,12 @@
       <c r="U220">
         <v>-2.8537947197904461E-2</v>
       </c>
-    </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V220" s="2">
+        <f t="shared" si="3"/>
+        <v>6.0915029942830157E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>238</v>
       </c>
@@ -11499,8 +12367,12 @@
       <c r="U221">
         <v>-1.0430710281700135E-2</v>
       </c>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V221" s="2">
+        <f t="shared" si="3"/>
+        <v>-8.8442915357424302E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>239</v>
       </c>
@@ -11537,8 +12409,12 @@
       <c r="U222">
         <v>-2.9399110856159472E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V222" s="2">
+        <f t="shared" si="3"/>
+        <v>6.5416591836960011E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>240</v>
       </c>
@@ -11575,8 +12451,12 @@
       <c r="U223">
         <v>3.2210401891252953E-2</v>
       </c>
-    </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V223" s="2">
+        <f t="shared" si="3"/>
+        <v>-5.1783796605252078E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>241</v>
       </c>
@@ -11613,8 +12493,12 @@
       <c r="U224">
         <v>0.10041511594617807</v>
       </c>
-    </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V224" s="2">
+        <f t="shared" si="3"/>
+        <v>-4.6150657830065223E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>242</v>
       </c>
@@ -11651,8 +12535,12 @@
       <c r="U225">
         <v>3.9674796747967483E-3</v>
       </c>
-    </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V225" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0106312495777185E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>243</v>
       </c>
@@ -11689,8 +12577,12 @@
       <c r="U226">
         <v>2.3322104172065301E-3</v>
       </c>
-    </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V226" s="2">
+        <f t="shared" si="3"/>
+        <v>-6.6496353206072184E-4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>244</v>
       </c>
@@ -11727,8 +12619,12 @@
       <c r="U227">
         <v>0.13411323681489143</v>
       </c>
-    </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V227" s="2">
+        <f t="shared" si="3"/>
+        <v>-9.5107873942909538E-4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>245</v>
       </c>
@@ -11765,8 +12661,12 @@
       <c r="U228">
         <v>2.6842195247050778E-2</v>
       </c>
-    </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V228" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.0057622835427139E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>246</v>
       </c>
@@ -11803,8 +12703,12 @@
       <c r="U229">
         <v>1.8315018315018315E-3</v>
       </c>
-    </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V229" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1704629727563448E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>247</v>
       </c>
@@ -11841,8 +12745,12 @@
       <c r="U230">
         <v>-2.5871142872971025E-2</v>
       </c>
-    </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V230" s="2">
+        <f t="shared" si="3"/>
+        <v>2.2424678938603657E-4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>248</v>
       </c>
@@ -11879,8 +12787,12 @@
       <c r="U231">
         <v>4.6235213830755233E-2</v>
       </c>
-    </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V231" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.7246716047642056E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>249</v>
       </c>
@@ -11917,8 +12829,12 @@
       <c r="U232">
         <v>8.6230126650498518E-4</v>
       </c>
-    </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V232" s="2">
+        <f t="shared" si="3"/>
+        <v>3.2524504078500376E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>250</v>
       </c>
@@ -11955,8 +12871,12 @@
       <c r="U233">
         <v>1.1361800656938236E-2</v>
       </c>
-    </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V233" s="2">
+        <f t="shared" si="3"/>
+        <v>9.1060150391550909E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>251</v>
       </c>
@@ -11993,8 +12913,12 @@
       <c r="U234">
         <v>1.8315408369715687E-2</v>
       </c>
-    </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V234" s="2">
+        <f t="shared" si="3"/>
+        <v>-6.7391505223246134E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>252</v>
       </c>
@@ -12031,8 +12955,12 @@
       <c r="U235">
         <v>4.2559866150789501E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V235" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9060788050778918E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>253</v>
       </c>
@@ -12069,8 +12997,12 @@
       <c r="U236">
         <v>8.0240722166499499E-3</v>
       </c>
-    </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V236" s="2">
+        <f t="shared" si="3"/>
+        <v>9.5643740928776089E-5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>254</v>
       </c>
@@ -12107,8 +13039,12 @@
       <c r="U237">
         <v>-4.592039800995025E-2</v>
       </c>
-    </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V237" s="2">
+        <f t="shared" si="3"/>
+        <v>-9.2617632827081409E-4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>255</v>
       </c>
@@ -12145,8 +13081,12 @@
       <c r="U238">
         <v>-4.1247327527767635E-2</v>
       </c>
-    </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V238" s="2">
+        <f t="shared" si="3"/>
+        <v>4.9483592956407335E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>256</v>
       </c>
@@ -12183,8 +13123,12 @@
       <c r="U239">
         <v>6.5430218644620911E-2</v>
       </c>
-    </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V239" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.7342605198528852E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>257</v>
       </c>
@@ -12221,8 +13165,12 @@
       <c r="U240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V240" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.1122430824688818E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>258</v>
       </c>
@@ -12259,8 +13207,12 @@
       <c r="U241">
         <v>4.2881208841696874E-3</v>
       </c>
-    </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V241" s="2">
+        <f t="shared" si="3"/>
+        <v>2.3877682535461207E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>259</v>
       </c>
@@ -12297,8 +13249,12 @@
       <c r="U242">
         <v>-1.7587556549585728E-2</v>
       </c>
-    </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V242" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.5570563271839764E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>260</v>
       </c>
@@ -12332,8 +13288,12 @@
       <c r="U243">
         <v>-1.034821751953226E-3</v>
       </c>
-    </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V243" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.8930329680421896E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>261</v>
       </c>
@@ -12367,8 +13327,12 @@
       <c r="U244">
         <v>3.5013207644895634E-2</v>
       </c>
-    </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V244" s="2">
+        <f t="shared" si="3"/>
+        <v>-4.3500688632234982E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>262</v>
       </c>
@@ -12402,8 +13366,12 @@
       <c r="U245">
         <v>-1.4011910123605065E-3</v>
       </c>
-    </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V245" s="2">
+        <f t="shared" si="3"/>
+        <v>2.2752587447256948E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>263</v>
       </c>
@@ -12437,8 +13405,12 @@
       <c r="U246">
         <v>2.6659984966173892E-2</v>
       </c>
-    </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V246" s="2">
+        <f t="shared" si="3"/>
+        <v>6.0019725974987531E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>264</v>
       </c>
@@ -12472,8 +13444,12 @@
       <c r="U247">
         <v>-5.5108117342705133E-2</v>
       </c>
-    </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V247" s="2">
+        <f t="shared" si="3"/>
+        <v>3.8525523873415568E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>265</v>
       </c>
@@ -12507,8 +13483,12 @@
       <c r="U248">
         <v>1.9113544787684679E-3</v>
       </c>
-    </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V248" s="2">
+        <f t="shared" si="3"/>
+        <v>-8.3928994997182153E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>266</v>
       </c>
@@ -12542,8 +13522,12 @@
       <c r="U249">
         <v>5.336426914153132E-2</v>
       </c>
-    </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V249" s="2">
+        <f t="shared" si="3"/>
+        <v>2.7254985514368196E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>267</v>
       </c>
@@ -12577,8 +13561,12 @@
       <c r="U250">
         <v>-1.7082721488007831E-2</v>
       </c>
-    </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V250" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.0440399077186165E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>268</v>
       </c>
@@ -12612,8 +13600,12 @@
       <c r="U251">
         <v>1.8873562073601913E-2</v>
       </c>
-    </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V251" s="2">
+        <f t="shared" si="3"/>
+        <v>3.945307399569678E-4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>269</v>
       </c>
@@ -12647,8 +13639,12 @@
       <c r="U252">
         <v>4.2619792920780157E-2</v>
       </c>
-    </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V252" s="2">
+        <f t="shared" si="3"/>
+        <v>5.6121550110524721E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>270</v>
       </c>
@@ -12682,8 +13678,12 @@
       <c r="U253">
         <v>5.9584295612009237E-3</v>
       </c>
-    </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V253" s="2">
+        <f t="shared" si="3"/>
+        <v>-6.0738897640046276E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>271</v>
       </c>
@@ -12717,8 +13717,12 @@
       <c r="U254">
         <v>-6.1848569723127786E-2</v>
       </c>
-    </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V254" s="2">
+        <f t="shared" si="3"/>
+        <v>9.9430424955588362E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>272</v>
       </c>
@@ -12752,8 +13756,12 @@
       <c r="U255">
         <v>-4.5614722004698509E-2</v>
       </c>
-    </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V255" s="2">
+        <f t="shared" si="3"/>
+        <v>-4.9562608212849954E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>273</v>
       </c>
@@ -12787,8 +13795,12 @@
       <c r="U256">
         <v>2.8205128205128207E-3</v>
       </c>
-    </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V256" s="2">
+        <f t="shared" si="3"/>
+        <v>2.1506635099278726E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>274</v>
       </c>
@@ -12822,8 +13834,12 @@
       <c r="U257">
         <v>-3.687036563538737E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V257" s="2">
+        <f t="shared" si="3"/>
+        <v>-6.5759936246466283E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>275</v>
       </c>
@@ -12857,8 +13873,12 @@
       <c r="U258">
         <v>6.5307422746097479E-2</v>
       </c>
-    </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V258" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.1622980493894451E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>276</v>
       </c>
@@ -12892,8 +13912,12 @@
       <c r="U259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V259" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4824171521107916E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>277</v>
       </c>
@@ -12927,8 +13951,12 @@
       <c r="U260">
         <v>-3.8028309409888356E-2</v>
       </c>
-    </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V260" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.026914807444837E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>278</v>
       </c>
@@ -12962,8 +13990,12 @@
       <c r="U261">
         <v>-1.2382778094399255E-2</v>
       </c>
-    </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V261" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.0249316545347232E-4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>279</v>
       </c>
@@ -12997,8 +14029,12 @@
       <c r="U262">
         <v>-3.7246878606651979E-3</v>
       </c>
-    </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V262" s="2">
+        <f t="shared" si="3"/>
+        <v>3.1077272105212625E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>280</v>
       </c>
@@ -13029,8 +14065,12 @@
       <c r="U263">
         <v>-8.79363909220157E-3</v>
       </c>
-    </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V263" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6460406625301892E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>281</v>
       </c>
@@ -13061,8 +14101,12 @@
       <c r="U264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V264" s="2">
+        <f t="shared" si="3"/>
+        <v>8.6694437820833536E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>282</v>
       </c>
@@ -13093,8 +14137,12 @@
       <c r="U265">
         <v>4.3242668933276669E-2</v>
       </c>
-    </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V265" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.2495516444183567E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>283</v>
       </c>
@@ -13125,8 +14173,12 @@
       <c r="U266">
         <v>1.0591709950096751E-2</v>
       </c>
-    </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V266" s="2">
+        <f t="shared" si="3"/>
+        <v>-5.8073133661419932E-4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>284</v>
       </c>
@@ -13157,8 +14209,12 @@
       <c r="U267">
         <v>3.9504182202962812E-2</v>
       </c>
-    </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V267" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.2865768349039431E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>285</v>
       </c>
@@ -13189,8 +14245,12 @@
       <c r="U268">
         <v>-6.1706253029568586E-2</v>
       </c>
-    </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V268" s="2">
+        <f t="shared" ref="V268:V290" si="4">T268-S268</f>
+        <v>1.4908657435396544E-3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>286</v>
       </c>
@@ -13221,8 +14281,12 @@
       <c r="U269">
         <v>-2.6398718809732914E-2</v>
       </c>
-    </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V269" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3720237955134824E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>287</v>
       </c>
@@ -13253,8 +14317,12 @@
       <c r="U270">
         <v>-2.2179772896105274E-2</v>
       </c>
-    </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V270" s="2">
+        <f t="shared" si="4"/>
+        <v>-2.477017820865756E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>288</v>
       </c>
@@ -13285,8 +14353,12 @@
       <c r="U271">
         <v>3.3318862600390707E-2</v>
       </c>
-    </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V271" s="2">
+        <f t="shared" si="4"/>
+        <v>2.6016146555360609E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>289</v>
       </c>
@@ -13317,8 +14389,12 @@
       <c r="U272">
         <v>-1.3706543430311942E-2</v>
       </c>
-    </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V272" s="2">
+        <f t="shared" si="4"/>
+        <v>-1.3908204677119593E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>290</v>
       </c>
@@ -13349,8 +14425,12 @@
       <c r="U273">
         <v>3.194718066130664E-2</v>
       </c>
-    </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V273" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2594994751209707E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>291</v>
       </c>
@@ -13381,8 +14461,12 @@
       <c r="U274">
         <v>3.2557659563490014E-2</v>
       </c>
-    </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V274" s="2">
+        <f t="shared" si="4"/>
+        <v>3.8173335876321504E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>292</v>
       </c>
@@ -13413,8 +14497,12 @@
       <c r="U275">
         <v>6.3899346146225481E-3</v>
       </c>
-    </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V275" s="2">
+        <f t="shared" si="4"/>
+        <v>-3.7384139160321446E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>293</v>
       </c>
@@ -13445,8 +14533,12 @@
       <c r="U276">
         <v>4.5971354038489932E-2</v>
       </c>
-    </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V276" s="2">
+        <f t="shared" si="4"/>
+        <v>3.4854175357223807E-3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>294</v>
       </c>
@@ -13477,8 +14569,12 @@
       <c r="U277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V277" s="2">
+        <f t="shared" si="4"/>
+        <v>-1.433274381336469E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>295</v>
       </c>
@@ -13509,8 +14605,12 @@
       <c r="U278">
         <v>9.9289445202578701E-3</v>
       </c>
-    </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V278" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3857197034628432E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>296</v>
       </c>
@@ -13541,8 +14641,12 @@
       <c r="U279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V279" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6720240100698793E-4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>297</v>
       </c>
@@ -13564,8 +14668,12 @@
       <c r="R280">
         <v>4.3120000000000003</v>
       </c>
-    </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V280" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A281" s="1">
         <v>45680</v>
       </c>
@@ -13575,8 +14683,12 @@
       <c r="R281">
         <v>4.3140000000000001</v>
       </c>
-    </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V281" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A282" s="1">
         <v>45681</v>
       </c>
@@ -13586,8 +14698,12 @@
       <c r="R282">
         <v>4.3239999999999998</v>
       </c>
-    </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V282" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A283" s="1">
         <v>45684</v>
       </c>
@@ -13597,8 +14713,12 @@
       <c r="R283">
         <v>4.3280000000000003</v>
       </c>
-    </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V283" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A284" s="1">
         <v>45685</v>
       </c>
@@ -13608,8 +14728,12 @@
       <c r="R284">
         <v>4.33</v>
       </c>
-    </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V284" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A285" s="1">
         <v>45686</v>
       </c>
@@ -13619,8 +14743,12 @@
       <c r="R285">
         <v>4.33</v>
       </c>
-    </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V285" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A286" s="1">
         <v>45687</v>
       </c>
@@ -13630,8 +14758,12 @@
       <c r="R286">
         <v>4.3209999999999997</v>
       </c>
-    </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V286" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A287" s="1">
         <v>45688</v>
       </c>
@@ -13641,8 +14773,12 @@
       <c r="R287">
         <v>4.298</v>
       </c>
-    </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V287" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A288" s="1">
         <v>45691</v>
       </c>
@@ -13652,8 +14788,12 @@
       <c r="R288">
         <v>4.3220000000000001</v>
       </c>
-    </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V288" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A289" s="1">
         <v>45692</v>
       </c>
@@ -13663,8 +14803,12 @@
       <c r="R289">
         <v>4.3109999999999999</v>
       </c>
-    </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V289" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A290" s="1">
         <v>45693</v>
       </c>
@@ -13673,6 +14817,16 @@
       </c>
       <c r="R290">
         <v>4.2990000000000004</v>
+      </c>
+      <c r="V290" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="V291" s="2" cm="1">
+        <f t="array" ref="V291">GEOMEAN(1+V11:V290)</f>
+        <v>0.99996654401661322</v>
       </c>
     </row>
   </sheetData>
